--- a/PANDAS.xlsx
+++ b/PANDAS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suyas\OneDrive\Desktop\SEEMITA MA'AM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suyas\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B644CD1-AF34-4BCA-AD79-0F3C2CFCE0F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB6EAE0-1BF3-43E3-8C7E-3707EEA4AF7D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6F207AB2-AA58-4B8E-9E16-532D4006488F}"/>
   </bookViews>
@@ -138,9 +138,6 @@
     <t>Rarely</t>
   </si>
   <si>
-    <t>Twitter, Instagram, WhatsApp, YouTube, Quora, Reddit</t>
-  </si>
-  <si>
     <t>Instagram, YouTube</t>
   </si>
   <si>
@@ -306,15 +303,9 @@
     <t>Cosmetics, Clothes</t>
   </si>
   <si>
-    <t>Facebook, Twitter, Instagram, WhatsApp, YouTube, Quora, Tumblr,reddit,pinterest,telegram</t>
-  </si>
-  <si>
     <t>Books/CDs, Clothes, Electronic gadgets</t>
   </si>
   <si>
-    <t>WhatsApp, YouTube, Quora, Discord</t>
-  </si>
-  <si>
     <t>YouTube, Quora</t>
   </si>
   <si>
@@ -345,9 +336,6 @@
     <t>Books/CDs, Electronic gadgets, Computer products</t>
   </si>
   <si>
-    <t>Facebook, Twitter, Instagram, Linkedin, WhatsApp, YouTube, Quora, telegram ,imo,line</t>
-  </si>
-  <si>
     <t>Facebook, Twitter, Instagram, YouTube, others</t>
   </si>
   <si>
@@ -375,9 +363,6 @@
     <t>Groceries, Electronic gadgets, Computer products, Tickets</t>
   </si>
   <si>
-    <t>Facebook, Twitter, Instagram, Linkedin, WhatsApp, YouTube, Snapchat, Quora, Messenger, Telegram</t>
-  </si>
-  <si>
     <t>Instagram, YouTube, Snapchat, Quora</t>
   </si>
   <si>
@@ -486,9 +471,6 @@
     <t>Prefer not to say</t>
   </si>
   <si>
-    <t>Facebook, Instagram, Linkedin, WhatsApp, YouTube, Github,printrest</t>
-  </si>
-  <si>
     <t>Cosmetics, Books/CDs, Tickets</t>
   </si>
   <si>
@@ -504,9 +486,6 @@
     <t>Clothes, Tickets</t>
   </si>
   <si>
-    <t>Facebook, Linkedin, WhatsApp, YouTube, Quora, Reddit</t>
-  </si>
-  <si>
     <t>Facebook, Twitter, Instagram, WhatsApp, YouTube</t>
   </si>
   <si>
@@ -613,13 +592,34 @@
   </si>
   <si>
     <t>Related ads</t>
+  </si>
+  <si>
+    <t>Twitter, Instagram, WhatsApp, YouTube, Quora, others</t>
+  </si>
+  <si>
+    <t>Facebook, Twitter, Instagram, WhatsApp, YouTube, Quora, Telegram, others</t>
+  </si>
+  <si>
+    <t>WhatsApp, YouTube, Quora, others</t>
+  </si>
+  <si>
+    <t>Facebook, Twitter, Instagram, Linkedin, WhatsApp, YouTube, Quora, Telegram , others</t>
+  </si>
+  <si>
+    <t>Facebook, Twitter, Instagram, Linkedin, WhatsApp, YouTube, Snapchat, Quora, Telegram, others</t>
+  </si>
+  <si>
+    <t>Facebook, Instagram, Linkedin, WhatsApp, YouTube, others</t>
+  </si>
+  <si>
+    <t>Facebook, Linkedin, WhatsApp, YouTube, Quora, others</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -638,12 +638,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1040,9 +1034,9 @@
   </sheetPr>
   <dimension ref="A1:M173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1056,43 +1050,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1270,22 +1264,22 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="J6" s="5">
         <v>2</v>
@@ -1311,19 +1305,19 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>7</v>
@@ -1355,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
@@ -1393,22 +1387,22 @@
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="J9" s="6">
         <v>1</v>
@@ -1431,7 +1425,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>20</v>
@@ -1446,10 +1440,10 @@
         <v>8</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="5">
         <v>2</v>
@@ -1475,19 +1469,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>24</v>
@@ -1513,22 +1507,22 @@
         <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>7</v>
@@ -1554,7 +1548,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>3</v>
@@ -1563,13 +1557,13 @@
         <v>21</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>7</v>
@@ -1598,22 +1592,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J14" s="5">
         <v>3</v>
@@ -1636,25 +1630,25 @@
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="I15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J15" s="5">
         <v>2</v>
@@ -1677,25 +1671,25 @@
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="I16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J16" s="5">
         <v>4</v>
@@ -1721,19 +1715,19 @@
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>7</v>
@@ -1774,7 +1768,7 @@
         <v>22</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>7</v>
@@ -1803,13 +1797,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="F19" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>5</v>
@@ -1835,7 +1829,7 @@
     </row>
     <row r="20" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="5">
         <v>23</v>
@@ -1844,11 +1838,11 @@
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="F20" s="5" t="s">
         <v>12</v>
       </c>
@@ -1856,7 +1850,7 @@
         <v>8</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>7</v>
@@ -1885,19 +1879,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>7</v>
@@ -1938,10 +1932,10 @@
         <v>8</v>
       </c>
       <c r="H22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="J22" s="5">
         <v>2</v>
@@ -1958,13 +1952,13 @@
     </row>
     <row r="23" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="5">
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>20</v>
@@ -1979,7 +1973,7 @@
         <v>8</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>7</v>
@@ -2008,22 +2002,22 @@
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J24" s="5">
         <v>1</v>
@@ -2049,22 +2043,22 @@
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="I25" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J25" s="5">
         <v>5</v>
@@ -2090,19 +2084,19 @@
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>7</v>
@@ -2131,10 +2125,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>12</v>
@@ -2143,7 +2137,7 @@
         <v>8</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>7</v>
@@ -2163,7 +2157,7 @@
     </row>
     <row r="28" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="5">
         <v>22</v>
@@ -2184,7 +2178,7 @@
         <v>8</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>7</v>
@@ -2204,7 +2198,7 @@
     </row>
     <row r="29" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="5">
         <v>22</v>
@@ -2213,22 +2207,22 @@
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="I29" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J29" s="5">
         <v>2</v>
@@ -2257,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>4</v>
@@ -2266,7 +2260,7 @@
         <v>8</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>7</v>
@@ -2295,22 +2289,22 @@
         <v>1</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J31" s="5">
         <v>2</v>
@@ -2327,7 +2321,7 @@
     </row>
     <row r="32" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="5">
         <v>23</v>
@@ -2336,10 +2330,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>12</v>
@@ -2348,7 +2342,7 @@
         <v>22</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>7</v>
@@ -2368,28 +2362,28 @@
     </row>
     <row r="33" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="5">
         <v>21</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>7</v>
@@ -2409,7 +2403,7 @@
     </row>
     <row r="34" spans="1:13" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="5">
         <v>23</v>
@@ -2418,19 +2412,19 @@
         <v>1</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>7</v>
@@ -2456,13 +2450,13 @@
         <v>23</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>12</v>
@@ -2471,10 +2465,10 @@
         <v>8</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J35" s="4">
         <v>2</v>
@@ -2500,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>20</v>
@@ -2512,7 +2506,7 @@
         <v>8</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>7</v>
@@ -2538,7 +2532,7 @@
         <v>29</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>20</v>
@@ -2553,7 +2547,7 @@
         <v>22</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>7</v>
@@ -2579,13 +2573,13 @@
         <v>21</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>4</v>
@@ -2594,7 +2588,7 @@
         <v>8</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>7</v>
@@ -2623,10 +2617,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>12</v>
@@ -2635,7 +2629,7 @@
         <v>22</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>7</v>
@@ -2664,10 +2658,10 @@
         <v>1</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>12</v>
@@ -2676,7 +2670,7 @@
         <v>8</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>7</v>
@@ -2705,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>21</v>
@@ -2717,7 +2711,7 @@
         <v>8</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>7</v>
@@ -2746,19 +2740,19 @@
         <v>1</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>24</v>
@@ -2784,13 +2778,13 @@
         <v>26</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>12</v>
@@ -2799,10 +2793,10 @@
         <v>8</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J43" s="4">
         <v>3</v>
@@ -2828,11 +2822,11 @@
         <v>1</v>
       </c>
       <c r="D44" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="F44" s="5" t="s">
         <v>12</v>
       </c>
@@ -2840,7 +2834,7 @@
         <v>22</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>7</v>
@@ -2869,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>12</v>
@@ -2881,7 +2875,7 @@
         <v>8</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>7</v>
@@ -2910,10 +2904,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>12</v>
@@ -2922,7 +2916,7 @@
         <v>8</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>7</v>
@@ -2948,13 +2942,13 @@
         <v>18</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>12</v>
@@ -2963,10 +2957,10 @@
         <v>8</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J47" s="5">
         <v>2</v>
@@ -2992,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>21</v>
@@ -3004,10 +2998,10 @@
         <v>8</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J48" s="5">
         <v>3</v>
@@ -3033,10 +3027,10 @@
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>12</v>
@@ -3045,10 +3039,10 @@
         <v>22</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J49" s="5">
         <v>5</v>
@@ -3074,10 +3068,10 @@
         <v>1</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>12</v>
@@ -3086,10 +3080,10 @@
         <v>5</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J50" s="5">
         <v>3</v>
@@ -3112,22 +3106,22 @@
         <v>23</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>7</v>
@@ -3168,7 +3162,7 @@
         <v>5</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>7</v>
@@ -3197,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>21</v>
@@ -3209,7 +3203,7 @@
         <v>22</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>7</v>
@@ -3235,22 +3229,22 @@
         <v>20</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>7</v>
@@ -3279,10 +3273,10 @@
         <v>1</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>12</v>
@@ -3291,10 +3285,10 @@
         <v>5</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J55" s="4">
         <v>4</v>
@@ -3311,7 +3305,7 @@
     </row>
     <row r="56" spans="1:13" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="5">
         <v>19</v>
@@ -3320,10 +3314,10 @@
         <v>1</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>12</v>
@@ -3332,7 +3326,7 @@
         <v>22</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>7</v>
@@ -3361,10 +3355,10 @@
         <v>1</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>12</v>
@@ -3373,10 +3367,10 @@
         <v>22</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J57" s="5">
         <v>3</v>
@@ -3399,7 +3393,7 @@
         <v>23</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>20</v>
@@ -3414,7 +3408,7 @@
         <v>8</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>7</v>
@@ -3434,7 +3428,7 @@
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="5">
         <v>19</v>
@@ -3443,10 +3437,10 @@
         <v>1</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>12</v>
@@ -3455,7 +3449,7 @@
         <v>8</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>24</v>
@@ -3484,10 +3478,10 @@
         <v>1</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>12</v>
@@ -3499,7 +3493,7 @@
         <v>18</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J60" s="5">
         <v>3</v>
@@ -3537,7 +3531,7 @@
         <v>22</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>7</v>
@@ -3566,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>21</v>
@@ -3578,7 +3572,7 @@
         <v>8</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>7</v>
@@ -3604,13 +3598,13 @@
         <v>23</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>12</v>
@@ -3619,7 +3613,7 @@
         <v>22</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>7</v>
@@ -3645,13 +3639,13 @@
         <v>28</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>12</v>
@@ -3660,7 +3654,7 @@
         <v>8</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>7</v>
@@ -3686,13 +3680,13 @@
         <v>18</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>12</v>
@@ -3701,7 +3695,7 @@
         <v>8</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>7</v>
@@ -3730,10 +3724,10 @@
         <v>1</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>12</v>
@@ -3742,7 +3736,7 @@
         <v>22</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>7</v>
@@ -3774,7 +3768,7 @@
         <v>20</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>4</v>
@@ -3783,7 +3777,7 @@
         <v>8</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>7</v>
@@ -3812,10 +3806,10 @@
         <v>1</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>4</v>
@@ -3824,7 +3818,7 @@
         <v>8</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>7</v>
@@ -3850,25 +3844,25 @@
         <v>21</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J69" s="5">
         <v>2</v>
@@ -3891,10 +3885,10 @@
         <v>19</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>21</v>
@@ -3906,7 +3900,7 @@
         <v>8</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>7</v>
@@ -3932,10 +3926,10 @@
         <v>20</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>21</v>
@@ -3947,7 +3941,7 @@
         <v>8</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>7</v>
@@ -3976,10 +3970,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>4</v>
@@ -3988,7 +3982,7 @@
         <v>22</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>7</v>
@@ -4014,13 +4008,13 @@
         <v>18</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>12</v>
@@ -4029,10 +4023,10 @@
         <v>8</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J73" s="5">
         <v>3</v>
@@ -4055,10 +4049,10 @@
         <v>21</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>21</v>
@@ -4070,7 +4064,7 @@
         <v>8</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>7</v>
@@ -4099,11 +4093,11 @@
         <v>1</v>
       </c>
       <c r="D75" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="F75" s="5" t="s">
         <v>12</v>
       </c>
@@ -4111,7 +4105,7 @@
         <v>8</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>7</v>
@@ -4140,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>21</v>
@@ -4152,7 +4146,7 @@
         <v>5</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>24</v>
@@ -4181,10 +4175,10 @@
         <v>1</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>4</v>
@@ -4193,7 +4187,7 @@
         <v>8</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>7</v>
@@ -4225,7 +4219,7 @@
         <v>2</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>12</v>
@@ -4234,7 +4228,7 @@
         <v>8</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>7</v>
@@ -4260,10 +4254,10 @@
         <v>30</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>21</v>
@@ -4275,10 +4269,10 @@
         <v>22</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J79" s="5">
         <v>3</v>
@@ -4304,10 +4298,10 @@
         <v>1</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>12</v>
@@ -4316,10 +4310,10 @@
         <v>5</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J80" s="5">
         <v>3</v>
@@ -4357,7 +4351,7 @@
         <v>8</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>7</v>
@@ -4386,10 +4380,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>12</v>
@@ -4398,10 +4392,10 @@
         <v>8</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J82" s="5">
         <v>1</v>
@@ -4427,10 +4421,10 @@
         <v>1</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>12</v>
@@ -4439,10 +4433,10 @@
         <v>5</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J83" s="5">
         <v>3</v>
@@ -4459,16 +4453,16 @@
     </row>
     <row r="84" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B84" s="5">
         <v>22</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>21</v>
@@ -4480,7 +4474,7 @@
         <v>22</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I84" s="5" t="s">
         <v>7</v>
@@ -4509,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>3</v>
@@ -4521,10 +4515,10 @@
         <v>5</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J85" s="5">
         <v>1</v>
@@ -4562,10 +4556,10 @@
         <v>22</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J86" s="4">
         <v>3</v>
@@ -4591,10 +4585,10 @@
         <v>1</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>12</v>
@@ -4603,7 +4597,7 @@
         <v>5</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>7</v>
@@ -4632,10 +4626,10 @@
         <v>1</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>12</v>
@@ -4644,7 +4638,7 @@
         <v>8</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>7</v>
@@ -4673,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>21</v>
@@ -4685,7 +4679,7 @@
         <v>8</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>7</v>
@@ -4714,10 +4708,10 @@
         <v>1</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>12</v>
@@ -4726,7 +4720,7 @@
         <v>8</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>7</v>
@@ -4755,10 +4749,10 @@
         <v>1</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>12</v>
@@ -4796,10 +4790,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>12</v>
@@ -4808,7 +4802,7 @@
         <v>8</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>7</v>
@@ -4840,7 +4834,7 @@
         <v>3</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>12</v>
@@ -4849,7 +4843,7 @@
         <v>5</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>7</v>
@@ -4875,13 +4869,13 @@
         <v>23</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>4</v>
@@ -4890,7 +4884,7 @@
         <v>8</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I94" s="5" t="s">
         <v>7</v>
@@ -4919,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>21</v>
@@ -4931,7 +4925,7 @@
         <v>8</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>7</v>
@@ -4957,13 +4951,13 @@
         <v>23</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>12</v>
@@ -4972,7 +4966,7 @@
         <v>5</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>7</v>
@@ -5001,10 +4995,10 @@
         <v>1</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>12</v>
@@ -5042,10 +5036,10 @@
         <v>1</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>12</v>
@@ -5054,7 +5048,7 @@
         <v>22</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I98" s="5" t="s">
         <v>7</v>
@@ -5083,10 +5077,10 @@
         <v>1</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>4</v>
@@ -5095,7 +5089,7 @@
         <v>8</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I99" s="4" t="s">
         <v>24</v>
@@ -5121,13 +5115,13 @@
         <v>21</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>12</v>
@@ -5136,7 +5130,7 @@
         <v>8</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I100" s="4" t="s">
         <v>7</v>
@@ -5162,7 +5156,7 @@
         <v>21</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>20</v>
@@ -5177,7 +5171,7 @@
         <v>8</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I101" s="4" t="s">
         <v>7</v>
@@ -5203,22 +5197,22 @@
         <v>24</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>7</v>
@@ -5250,7 +5244,7 @@
         <v>21</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>12</v>
@@ -5259,10 +5253,10 @@
         <v>8</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J103" s="4">
         <v>2</v>
@@ -5285,13 +5279,13 @@
         <v>20</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>12</v>
@@ -5300,7 +5294,7 @@
         <v>8</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I104" s="5" t="s">
         <v>7</v>
@@ -5332,7 +5326,7 @@
         <v>20</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>12</v>
@@ -5341,7 +5335,7 @@
         <v>5</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>7</v>
@@ -5382,7 +5376,7 @@
         <v>22</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I106" s="5" t="s">
         <v>7</v>
@@ -5411,10 +5405,10 @@
         <v>1</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>12</v>
@@ -5423,7 +5417,7 @@
         <v>22</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I107" s="5" t="s">
         <v>7</v>
@@ -5452,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>21</v>
@@ -5467,7 +5461,7 @@
         <v>6</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J108" s="5">
         <v>4</v>
@@ -5493,10 +5487,10 @@
         <v>1</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>12</v>
@@ -5534,22 +5528,22 @@
         <v>1</v>
       </c>
       <c r="D110" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H110" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E110" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="I110" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J110" s="5">
         <v>5</v>
@@ -5575,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>21</v>
@@ -5587,7 +5581,7 @@
         <v>22</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I111" s="5" t="s">
         <v>7</v>
@@ -5616,10 +5610,10 @@
         <v>1</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>12</v>
@@ -5628,7 +5622,7 @@
         <v>8</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I112" s="5" t="s">
         <v>7</v>
@@ -5654,13 +5648,13 @@
         <v>20</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>12</v>
@@ -5669,7 +5663,7 @@
         <v>8</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I113" s="5" t="s">
         <v>7</v>
@@ -5695,13 +5689,13 @@
         <v>20</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>12</v>
@@ -5710,7 +5704,7 @@
         <v>8</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I114" s="5" t="s">
         <v>7</v>
@@ -5736,22 +5730,22 @@
         <v>20</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I115" s="5" t="s">
         <v>7</v>
@@ -5777,10 +5771,10 @@
         <v>18</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>21</v>
@@ -5792,7 +5786,7 @@
         <v>8</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I116" s="5" t="s">
         <v>7</v>
@@ -5821,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>21</v>
@@ -5833,7 +5827,7 @@
         <v>8</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I117" s="5" t="s">
         <v>24</v>
@@ -5862,10 +5856,10 @@
         <v>1</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>12</v>
@@ -5874,10 +5868,10 @@
         <v>8</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J118" s="5">
         <v>2</v>
@@ -5903,10 +5897,10 @@
         <v>1</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>12</v>
@@ -5956,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I120" s="5" t="s">
         <v>7</v>
@@ -5988,7 +5982,7 @@
         <v>20</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>12</v>
@@ -5997,7 +5991,7 @@
         <v>8</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I121" s="5" t="s">
         <v>7</v>
@@ -6023,13 +6017,13 @@
         <v>20</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>4</v>
@@ -6038,7 +6032,7 @@
         <v>8</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I122" s="5" t="s">
         <v>7</v>
@@ -6070,16 +6064,16 @@
         <v>20</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I123" s="5" t="s">
         <v>7</v>
@@ -6108,19 +6102,19 @@
         <v>1</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I124" s="5" t="s">
         <v>7</v>
@@ -6161,7 +6155,7 @@
         <v>8</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I125" s="5" t="s">
         <v>7</v>
@@ -6187,13 +6181,13 @@
         <v>20</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>12</v>
@@ -6202,7 +6196,7 @@
         <v>22</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I126" s="5" t="s">
         <v>24</v>
@@ -6231,10 +6225,10 @@
         <v>1</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>12</v>
@@ -6243,10 +6237,10 @@
         <v>8</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J127" s="5">
         <v>2</v>
@@ -6275,16 +6269,16 @@
         <v>20</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I128" s="5" t="s">
         <v>7</v>
@@ -6313,7 +6307,7 @@
         <v>1</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>21</v>
@@ -6325,7 +6319,7 @@
         <v>8</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>7</v>
@@ -6395,7 +6389,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>20</v>
@@ -6407,7 +6401,7 @@
         <v>8</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I131" s="5" t="s">
         <v>7</v>
@@ -6433,13 +6427,13 @@
         <v>20</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>12</v>
@@ -6448,10 +6442,10 @@
         <v>22</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J132" s="5">
         <v>2</v>
@@ -6474,13 +6468,13 @@
         <v>19</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>12</v>
@@ -6489,7 +6483,7 @@
         <v>8</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I133" s="5" t="s">
         <v>7</v>
@@ -6518,10 +6512,10 @@
         <v>1</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>12</v>
@@ -6530,7 +6524,7 @@
         <v>8</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I134" s="5" t="s">
         <v>7</v>
@@ -6559,22 +6553,22 @@
         <v>1</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J135" s="5">
         <v>1</v>
@@ -6612,10 +6606,10 @@
         <v>5</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J136" s="5">
         <v>4</v>
@@ -6638,22 +6632,22 @@
         <v>19</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I137" s="5" t="s">
         <v>7</v>
@@ -6682,7 +6676,7 @@
         <v>1</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>21</v>
@@ -6694,10 +6688,10 @@
         <v>8</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J138" s="5">
         <v>2</v>
@@ -6735,10 +6729,10 @@
         <v>8</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J139" s="5">
         <v>4</v>
@@ -6767,7 +6761,7 @@
         <v>20</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>12</v>
@@ -6776,7 +6770,7 @@
         <v>5</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I140" s="5" t="s">
         <v>7</v>
@@ -6805,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>21</v>
@@ -6817,7 +6811,7 @@
         <v>5</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I141" s="5" t="s">
         <v>7</v>
@@ -6846,10 +6840,10 @@
         <v>1</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>12</v>
@@ -6858,7 +6852,7 @@
         <v>22</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I142" s="5" t="s">
         <v>7</v>
@@ -6887,22 +6881,22 @@
         <v>1</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J143" s="5">
         <v>3</v>
@@ -6928,10 +6922,10 @@
         <v>1</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>4</v>
@@ -6940,7 +6934,7 @@
         <v>8</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I144" s="5" t="s">
         <v>7</v>
@@ -6969,10 +6963,10 @@
         <v>1</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>12</v>
@@ -6981,7 +6975,7 @@
         <v>8</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I145" s="5" t="s">
         <v>7</v>
@@ -7007,13 +7001,13 @@
         <v>18</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>12</v>
@@ -7022,7 +7016,7 @@
         <v>5</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I146" s="4" t="s">
         <v>7</v>
@@ -7048,13 +7042,13 @@
         <v>21</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>12</v>
@@ -7063,7 +7057,7 @@
         <v>8</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I147" s="4" t="s">
         <v>7</v>
@@ -7089,7 +7083,7 @@
         <v>24</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>3</v>
@@ -7104,7 +7098,7 @@
         <v>8</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I148" s="4" t="s">
         <v>7</v>
@@ -7130,7 +7124,7 @@
         <v>27</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>3</v>
@@ -7145,7 +7139,7 @@
         <v>8</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I149" s="4" t="s">
         <v>7</v>
@@ -7171,10 +7165,10 @@
         <v>21</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>21</v>
@@ -7186,7 +7180,7 @@
         <v>8</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I150" s="4" t="s">
         <v>7</v>
@@ -7212,7 +7206,7 @@
         <v>21</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>21</v>
@@ -7227,7 +7221,7 @@
         <v>8</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I151" s="4" t="s">
         <v>7</v>
@@ -7253,7 +7247,7 @@
         <v>25</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>20</v>
@@ -7268,7 +7262,7 @@
         <v>22</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I152" s="5" t="s">
         <v>7</v>
@@ -7291,16 +7285,16 @@
         <v>15</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>12</v>
@@ -7309,7 +7303,7 @@
         <v>5</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I153" s="4" t="s">
         <v>7</v>
@@ -7338,10 +7332,10 @@
         <v>1</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>4</v>
@@ -7350,7 +7344,7 @@
         <v>8</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I154" s="4" t="s">
         <v>7</v>
@@ -7376,10 +7370,10 @@
         <v>24</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>21</v>
@@ -7391,10 +7385,10 @@
         <v>8</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J155" s="4">
         <v>1</v>
@@ -7417,13 +7411,13 @@
         <v>26</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>12</v>
@@ -7432,7 +7426,7 @@
         <v>8</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I156" s="4" t="s">
         <v>24</v>
@@ -7461,11 +7455,11 @@
         <v>1</v>
       </c>
       <c r="D157" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E157" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E157" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="F157" s="4" t="s">
         <v>12</v>
       </c>
@@ -7473,10 +7467,10 @@
         <v>22</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J157" s="4">
         <v>3</v>
@@ -7499,13 +7493,13 @@
         <v>24</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>12</v>
@@ -7514,7 +7508,7 @@
         <v>8</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I158" s="4" t="s">
         <v>7</v>
@@ -7540,10 +7534,10 @@
         <v>21</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>21</v>
@@ -7555,7 +7549,7 @@
         <v>5</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I159" s="4" t="s">
         <v>7</v>
@@ -7581,13 +7575,13 @@
         <v>23</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>12</v>
@@ -7596,10 +7590,10 @@
         <v>5</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J160" s="4">
         <v>3</v>
@@ -7625,10 +7619,10 @@
         <v>1</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>12</v>
@@ -7637,10 +7631,10 @@
         <v>22</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J161" s="5">
         <v>4</v>
@@ -7663,13 +7657,13 @@
         <v>45</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>12</v>
@@ -7678,10 +7672,10 @@
         <v>22</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J162" s="4">
         <v>4</v>
@@ -7704,13 +7698,13 @@
         <v>25</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>12</v>
@@ -7719,10 +7713,10 @@
         <v>8</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J163" s="4">
         <v>2</v>
@@ -7748,10 +7742,10 @@
         <v>1</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>4</v>
@@ -7760,10 +7754,10 @@
         <v>8</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J164" s="4">
         <v>2</v>
@@ -7789,10 +7783,10 @@
         <v>1</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>12</v>
@@ -7801,10 +7795,10 @@
         <v>8</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J165" s="4">
         <v>3</v>
@@ -7827,13 +7821,13 @@
         <v>32</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>12</v>
@@ -7842,10 +7836,10 @@
         <v>5</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J166" s="4">
         <v>3</v>
@@ -7868,13 +7862,13 @@
         <v>23</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>12</v>
@@ -7883,7 +7877,7 @@
         <v>5</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I167" s="4" t="s">
         <v>7</v>
@@ -7909,13 +7903,13 @@
         <v>22</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>12</v>
@@ -7924,10 +7918,10 @@
         <v>22</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J168" s="4">
         <v>3</v>
@@ -7950,13 +7944,13 @@
         <v>28</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>12</v>
@@ -7965,7 +7959,7 @@
         <v>8</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I169" s="4" t="s">
         <v>7</v>
@@ -7991,10 +7985,10 @@
         <v>27</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>21</v>
@@ -8006,7 +8000,7 @@
         <v>22</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I170" s="4" t="s">
         <v>24</v>
@@ -8026,7 +8020,7 @@
     </row>
     <row r="171" spans="1:13" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B171" s="5">
         <v>18</v>
@@ -8035,10 +8029,10 @@
         <v>1</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>12</v>
@@ -8076,10 +8070,10 @@
         <v>1</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>12</v>
@@ -8114,10 +8108,10 @@
         <v>19</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>21</v>
@@ -8129,7 +8123,7 @@
         <v>8</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I173" s="5" t="s">
         <v>7</v>

--- a/PANDAS.xlsx
+++ b/PANDAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suyas\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB6EAE0-1BF3-43E3-8C7E-3707EEA4AF7D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A292FC-9D5E-44D1-AB1D-5AB8F5EBEF07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6F207AB2-AA58-4B8E-9E16-532D4006488F}"/>
   </bookViews>
@@ -1034,9 +1034,9 @@
   </sheetPr>
   <dimension ref="A1:M173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/PANDAS.xlsx
+++ b/PANDAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suyas\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A292FC-9D5E-44D1-AB1D-5AB8F5EBEF07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466F281C-D13C-4457-A632-52798E8A7E85}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6F207AB2-AA58-4B8E-9E16-532D4006488F}"/>
   </bookViews>
@@ -132,9 +132,6 @@
     <t>Clothes, Furnitures, Electronic gadgets</t>
   </si>
   <si>
-    <t>Depends</t>
-  </si>
-  <si>
     <t>Rarely</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>Instagram, Linkedin, YouTube</t>
   </si>
   <si>
-    <t xml:space="preserve">Depends </t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
@@ -318,9 +312,6 @@
     <t>Facebook, Instagram, Linkedin, YouTube</t>
   </si>
   <si>
-    <t xml:space="preserve">Depends  </t>
-  </si>
-  <si>
     <t>Books/CDs</t>
   </si>
   <si>
@@ -613,6 +604,15 @@
   </si>
   <si>
     <t>Facebook, Linkedin, WhatsApp, YouTube, Quora, others</t>
+  </si>
+  <si>
+    <t>DEPENDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPENDS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPENDS  </t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1035,8 @@
   <dimension ref="A1:M173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I111" sqref="I111"/>
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I155" sqref="I155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1050,43 +1050,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1238,19 +1238,19 @@
         <v>23</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5">
+        <v>4</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="J5" s="5">
-        <v>3</v>
-      </c>
-      <c r="K5" s="5">
-        <v>4</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
@@ -1264,22 +1264,22 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="J6" s="5">
         <v>2</v>
@@ -1305,19 +1305,19 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>7</v>
@@ -1349,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
@@ -1387,11 +1387,11 @@
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
@@ -1399,10 +1399,10 @@
         <v>8</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="J9" s="6">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>20</v>
@@ -1440,10 +1440,10 @@
         <v>8</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" s="5">
         <v>2</v>
@@ -1469,34 +1469,34 @@
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="I11" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J11" s="5">
+        <v>3</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="J11" s="5">
-        <v>3</v>
-      </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
@@ -1507,13 +1507,13 @@
         <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>12</v>
@@ -1522,7 +1522,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>7</v>
@@ -1537,7 +1537,7 @@
         <v>8</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
@@ -1548,7 +1548,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>3</v>
@@ -1557,13 +1557,13 @@
         <v>21</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>7</v>
@@ -1592,22 +1592,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="I14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" s="5">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="I15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" s="5">
         <v>2</v>
@@ -1671,13 +1671,13 @@
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>12</v>
@@ -1686,10 +1686,10 @@
         <v>22</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J16" s="5">
         <v>4</v>
@@ -1715,19 +1715,19 @@
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>7</v>
@@ -1742,7 +1742,7 @@
         <v>22</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
@@ -1768,7 +1768,7 @@
         <v>22</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>7</v>
@@ -1783,7 +1783,7 @@
         <v>8</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
@@ -1797,13 +1797,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>5</v>
@@ -1824,12 +1824,12 @@
         <v>8</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" s="5">
         <v>23</v>
@@ -1838,10 +1838,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>12</v>
@@ -1850,7 +1850,7 @@
         <v>8</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>7</v>
@@ -1879,19 +1879,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>7</v>
@@ -1932,10 +1932,10 @@
         <v>8</v>
       </c>
       <c r="H22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="J22" s="5">
         <v>2</v>
@@ -1952,13 +1952,13 @@
     </row>
     <row r="23" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" s="5">
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>20</v>
@@ -1973,7 +1973,7 @@
         <v>8</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>7</v>
@@ -2002,22 +2002,22 @@
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J24" s="5">
         <v>1</v>
@@ -2043,10 +2043,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>12</v>
@@ -2055,10 +2055,10 @@
         <v>8</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J25" s="5">
         <v>5</v>
@@ -2084,10 +2084,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>12</v>
@@ -2096,7 +2096,7 @@
         <v>22</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>7</v>
@@ -2125,10 +2125,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>12</v>
@@ -2137,7 +2137,7 @@
         <v>8</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>7</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="28" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" s="5">
         <v>22</v>
@@ -2178,7 +2178,7 @@
         <v>8</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>7</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="29" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="5">
         <v>22</v>
@@ -2207,22 +2207,22 @@
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="I29" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J29" s="5">
         <v>2</v>
@@ -2251,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>4</v>
@@ -2260,7 +2260,7 @@
         <v>8</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>7</v>
@@ -2289,22 +2289,22 @@
         <v>1</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J31" s="5">
         <v>2</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="32" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" s="5">
         <v>23</v>
@@ -2330,10 +2330,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>12</v>
@@ -2342,7 +2342,7 @@
         <v>22</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>7</v>
@@ -2362,28 +2362,28 @@
     </row>
     <row r="33" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B33" s="5">
         <v>21</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>7</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="34" spans="1:13" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B34" s="5">
         <v>23</v>
@@ -2412,19 +2412,19 @@
         <v>1</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>7</v>
@@ -2439,7 +2439,7 @@
         <v>8</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2450,13 +2450,13 @@
         <v>23</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>12</v>
@@ -2465,10 +2465,10 @@
         <v>8</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J35" s="4">
         <v>2</v>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>20</v>
@@ -2506,7 +2506,7 @@
         <v>8</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>7</v>
@@ -2532,7 +2532,7 @@
         <v>29</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>20</v>
@@ -2547,7 +2547,7 @@
         <v>22</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>7</v>
@@ -2573,13 +2573,13 @@
         <v>21</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>4</v>
@@ -2588,7 +2588,7 @@
         <v>8</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>7</v>
@@ -2617,10 +2617,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>12</v>
@@ -2629,7 +2629,7 @@
         <v>22</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>7</v>
@@ -2644,7 +2644,7 @@
         <v>22</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2658,10 +2658,10 @@
         <v>1</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>12</v>
@@ -2670,7 +2670,7 @@
         <v>8</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>7</v>
@@ -2699,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>21</v>
@@ -2711,7 +2711,7 @@
         <v>8</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>7</v>
@@ -2726,7 +2726,7 @@
         <v>22</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="13" thickBot="1" x14ac:dyDescent="0.3">
@@ -2740,10 +2740,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>12</v>
@@ -2752,10 +2752,10 @@
         <v>8</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="J42" s="5">
         <v>5</v>
@@ -2778,13 +2778,13 @@
         <v>26</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>12</v>
@@ -2793,10 +2793,10 @@
         <v>8</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="J43" s="4">
         <v>3</v>
@@ -2822,10 +2822,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>12</v>
@@ -2834,7 +2834,7 @@
         <v>22</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>7</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>12</v>
@@ -2875,7 +2875,7 @@
         <v>8</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>7</v>
@@ -2904,10 +2904,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>12</v>
@@ -2916,7 +2916,7 @@
         <v>8</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>7</v>
@@ -2931,7 +2931,7 @@
         <v>8</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
@@ -2942,13 +2942,13 @@
         <v>18</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>12</v>
@@ -2957,10 +2957,10 @@
         <v>8</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J47" s="5">
         <v>2</v>
@@ -2972,7 +2972,7 @@
         <v>8</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
@@ -2986,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>21</v>
@@ -2998,10 +2998,10 @@
         <v>8</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J48" s="5">
         <v>3</v>
@@ -3013,7 +3013,7 @@
         <v>8</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
@@ -3027,10 +3027,10 @@
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>12</v>
@@ -3039,10 +3039,10 @@
         <v>22</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J49" s="5">
         <v>5</v>
@@ -3068,10 +3068,10 @@
         <v>1</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>12</v>
@@ -3080,10 +3080,10 @@
         <v>5</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J50" s="5">
         <v>3</v>
@@ -3106,22 +3106,22 @@
         <v>23</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>7</v>
@@ -3162,7 +3162,7 @@
         <v>5</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>7</v>
@@ -3191,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>21</v>
@@ -3203,7 +3203,7 @@
         <v>22</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>7</v>
@@ -3229,22 +3229,22 @@
         <v>20</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>7</v>
@@ -3273,10 +3273,10 @@
         <v>1</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>12</v>
@@ -3285,10 +3285,10 @@
         <v>5</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J55" s="4">
         <v>4</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="56" spans="1:13" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56" s="5">
         <v>19</v>
@@ -3314,10 +3314,10 @@
         <v>1</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>12</v>
@@ -3326,7 +3326,7 @@
         <v>22</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>7</v>
@@ -3355,10 +3355,10 @@
         <v>1</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>12</v>
@@ -3367,10 +3367,10 @@
         <v>22</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J57" s="5">
         <v>3</v>
@@ -3393,7 +3393,7 @@
         <v>23</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>20</v>
@@ -3408,7 +3408,7 @@
         <v>8</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>7</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B59" s="5">
         <v>19</v>
@@ -3437,22 +3437,22 @@
         <v>1</v>
       </c>
       <c r="D59" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="J59" s="5">
         <v>3</v>
@@ -3478,10 +3478,10 @@
         <v>1</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>12</v>
@@ -3493,7 +3493,7 @@
         <v>18</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J60" s="5">
         <v>3</v>
@@ -3531,7 +3531,7 @@
         <v>22</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>7</v>
@@ -3560,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>21</v>
@@ -3572,7 +3572,7 @@
         <v>8</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>7</v>
@@ -3598,13 +3598,13 @@
         <v>23</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>12</v>
@@ -3613,7 +3613,7 @@
         <v>22</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>7</v>
@@ -3639,13 +3639,13 @@
         <v>28</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>12</v>
@@ -3654,7 +3654,7 @@
         <v>8</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>7</v>
@@ -3680,13 +3680,13 @@
         <v>18</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>12</v>
@@ -3695,7 +3695,7 @@
         <v>8</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>7</v>
@@ -3710,7 +3710,7 @@
         <v>22</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
@@ -3724,10 +3724,10 @@
         <v>1</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>12</v>
@@ -3736,7 +3736,7 @@
         <v>22</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>7</v>
@@ -3768,7 +3768,7 @@
         <v>20</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>4</v>
@@ -3777,7 +3777,7 @@
         <v>8</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>7</v>
@@ -3792,7 +3792,7 @@
         <v>8</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
@@ -3806,10 +3806,10 @@
         <v>1</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>4</v>
@@ -3818,7 +3818,7 @@
         <v>8</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>7</v>
@@ -3844,25 +3844,25 @@
         <v>21</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J69" s="5">
         <v>2</v>
@@ -3885,10 +3885,10 @@
         <v>19</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>21</v>
@@ -3900,7 +3900,7 @@
         <v>8</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>7</v>
@@ -3926,10 +3926,10 @@
         <v>20</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>21</v>
@@ -3941,7 +3941,7 @@
         <v>8</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>7</v>
@@ -3970,10 +3970,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>4</v>
@@ -3982,7 +3982,7 @@
         <v>22</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>7</v>
@@ -4008,13 +4008,13 @@
         <v>18</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>12</v>
@@ -4023,10 +4023,10 @@
         <v>8</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J73" s="5">
         <v>3</v>
@@ -4049,10 +4049,10 @@
         <v>21</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>21</v>
@@ -4064,7 +4064,7 @@
         <v>8</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>7</v>
@@ -4093,10 +4093,10 @@
         <v>1</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>12</v>
@@ -4105,7 +4105,7 @@
         <v>8</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>7</v>
@@ -4134,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>21</v>
@@ -4146,22 +4146,22 @@
         <v>5</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I76" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J76" s="5">
+        <v>3</v>
+      </c>
+      <c r="K76" s="5">
+        <v>1</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="J76" s="5">
-        <v>3</v>
-      </c>
-      <c r="K76" s="5">
-        <v>1</v>
-      </c>
-      <c r="L76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M76" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
@@ -4175,10 +4175,10 @@
         <v>1</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>4</v>
@@ -4187,7 +4187,7 @@
         <v>8</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>7</v>
@@ -4219,7 +4219,7 @@
         <v>2</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>12</v>
@@ -4228,7 +4228,7 @@
         <v>8</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>7</v>
@@ -4243,7 +4243,7 @@
         <v>22</v>
       </c>
       <c r="M78" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
@@ -4254,10 +4254,10 @@
         <v>30</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>21</v>
@@ -4269,10 +4269,10 @@
         <v>22</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J79" s="5">
         <v>3</v>
@@ -4284,7 +4284,7 @@
         <v>8</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
@@ -4298,10 +4298,10 @@
         <v>1</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>12</v>
@@ -4310,10 +4310,10 @@
         <v>5</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J80" s="5">
         <v>3</v>
@@ -4351,7 +4351,7 @@
         <v>8</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>7</v>
@@ -4380,10 +4380,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>12</v>
@@ -4392,10 +4392,10 @@
         <v>8</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J82" s="5">
         <v>1</v>
@@ -4421,10 +4421,10 @@
         <v>1</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>12</v>
@@ -4433,10 +4433,10 @@
         <v>5</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J83" s="5">
         <v>3</v>
@@ -4453,16 +4453,16 @@
     </row>
     <row r="84" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B84" s="5">
         <v>22</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>21</v>
@@ -4474,7 +4474,7 @@
         <v>22</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I84" s="5" t="s">
         <v>7</v>
@@ -4489,7 +4489,7 @@
         <v>8</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="13" thickBot="1" x14ac:dyDescent="0.3">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>3</v>
@@ -4515,10 +4515,10 @@
         <v>5</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J85" s="5">
         <v>1</v>
@@ -4556,10 +4556,10 @@
         <v>22</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J86" s="4">
         <v>3</v>
@@ -4585,10 +4585,10 @@
         <v>1</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>12</v>
@@ -4597,7 +4597,7 @@
         <v>5</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>7</v>
@@ -4626,10 +4626,10 @@
         <v>1</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>12</v>
@@ -4638,7 +4638,7 @@
         <v>8</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>7</v>
@@ -4667,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>21</v>
@@ -4679,7 +4679,7 @@
         <v>8</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>7</v>
@@ -4708,10 +4708,10 @@
         <v>1</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>12</v>
@@ -4720,7 +4720,7 @@
         <v>8</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>7</v>
@@ -4749,10 +4749,10 @@
         <v>1</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>12</v>
@@ -4764,19 +4764,19 @@
         <v>6</v>
       </c>
       <c r="I91" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J91" s="4">
+        <v>4</v>
+      </c>
+      <c r="K91" s="4">
+        <v>2</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="J91" s="4">
-        <v>4</v>
-      </c>
-      <c r="K91" s="4">
-        <v>2</v>
-      </c>
-      <c r="L91" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:13" s="4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4790,10 +4790,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>12</v>
@@ -4802,7 +4802,7 @@
         <v>8</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>7</v>
@@ -4817,7 +4817,7 @@
         <v>8</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:13" s="4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4834,7 +4834,7 @@
         <v>3</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>12</v>
@@ -4843,7 +4843,7 @@
         <v>5</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>7</v>
@@ -4869,13 +4869,13 @@
         <v>23</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>4</v>
@@ -4884,7 +4884,7 @@
         <v>8</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I94" s="5" t="s">
         <v>7</v>
@@ -4913,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>21</v>
@@ -4925,7 +4925,7 @@
         <v>8</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>7</v>
@@ -4951,13 +4951,13 @@
         <v>23</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>12</v>
@@ -4966,7 +4966,7 @@
         <v>5</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>7</v>
@@ -4995,10 +4995,10 @@
         <v>1</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>12</v>
@@ -5036,10 +5036,10 @@
         <v>1</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>12</v>
@@ -5048,7 +5048,7 @@
         <v>22</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I98" s="5" t="s">
         <v>7</v>
@@ -5077,10 +5077,10 @@
         <v>1</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>4</v>
@@ -5089,10 +5089,10 @@
         <v>8</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="J99" s="4">
         <v>4</v>
@@ -5115,13 +5115,13 @@
         <v>21</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>12</v>
@@ -5130,7 +5130,7 @@
         <v>8</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I100" s="4" t="s">
         <v>7</v>
@@ -5156,7 +5156,7 @@
         <v>21</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>20</v>
@@ -5171,7 +5171,7 @@
         <v>8</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I101" s="4" t="s">
         <v>7</v>
@@ -5197,22 +5197,22 @@
         <v>24</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>7</v>
@@ -5244,7 +5244,7 @@
         <v>21</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>12</v>
@@ -5253,10 +5253,10 @@
         <v>8</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J103" s="4">
         <v>2</v>
@@ -5279,13 +5279,13 @@
         <v>20</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>12</v>
@@ -5294,7 +5294,7 @@
         <v>8</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I104" s="5" t="s">
         <v>7</v>
@@ -5326,7 +5326,7 @@
         <v>20</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>12</v>
@@ -5335,7 +5335,7 @@
         <v>5</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>7</v>
@@ -5376,7 +5376,7 @@
         <v>22</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I106" s="5" t="s">
         <v>7</v>
@@ -5405,10 +5405,10 @@
         <v>1</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>12</v>
@@ -5417,7 +5417,7 @@
         <v>22</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I107" s="5" t="s">
         <v>7</v>
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>21</v>
@@ -5461,7 +5461,7 @@
         <v>6</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J108" s="5">
         <v>4</v>
@@ -5487,10 +5487,10 @@
         <v>1</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>12</v>
@@ -5528,10 +5528,10 @@
         <v>1</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>12</v>
@@ -5540,10 +5540,10 @@
         <v>5</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J110" s="5">
         <v>5</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>21</v>
@@ -5581,7 +5581,7 @@
         <v>22</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I111" s="5" t="s">
         <v>7</v>
@@ -5610,19 +5610,19 @@
         <v>1</v>
       </c>
       <c r="D112" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="I112" s="5" t="s">
         <v>7</v>
@@ -5648,13 +5648,13 @@
         <v>20</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>12</v>
@@ -5663,7 +5663,7 @@
         <v>8</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I113" s="5" t="s">
         <v>7</v>
@@ -5689,13 +5689,13 @@
         <v>20</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>12</v>
@@ -5704,7 +5704,7 @@
         <v>8</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I114" s="5" t="s">
         <v>7</v>
@@ -5730,22 +5730,22 @@
         <v>20</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I115" s="5" t="s">
         <v>7</v>
@@ -5771,10 +5771,10 @@
         <v>18</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>21</v>
@@ -5786,7 +5786,7 @@
         <v>8</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I116" s="5" t="s">
         <v>7</v>
@@ -5815,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>21</v>
@@ -5827,10 +5827,10 @@
         <v>8</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="J117" s="5">
         <v>4</v>
@@ -5856,10 +5856,10 @@
         <v>1</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>12</v>
@@ -5868,10 +5868,10 @@
         <v>8</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J118" s="5">
         <v>2</v>
@@ -5897,10 +5897,10 @@
         <v>1</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>12</v>
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I120" s="5" t="s">
         <v>7</v>
@@ -5982,7 +5982,7 @@
         <v>20</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>12</v>
@@ -5991,7 +5991,7 @@
         <v>8</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I121" s="5" t="s">
         <v>7</v>
@@ -6017,13 +6017,13 @@
         <v>20</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>4</v>
@@ -6032,7 +6032,7 @@
         <v>8</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I122" s="5" t="s">
         <v>7</v>
@@ -6064,16 +6064,16 @@
         <v>20</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I123" s="5" t="s">
         <v>7</v>
@@ -6102,19 +6102,19 @@
         <v>1</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I124" s="5" t="s">
         <v>7</v>
@@ -6155,7 +6155,7 @@
         <v>8</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I125" s="5" t="s">
         <v>7</v>
@@ -6181,14 +6181,14 @@
         <v>20</v>
       </c>
       <c r="C126" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E126" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D126" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="F126" s="5" t="s">
         <v>12</v>
       </c>
@@ -6196,22 +6196,22 @@
         <v>22</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I126" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J126" s="5">
+        <v>3</v>
+      </c>
+      <c r="K126" s="5">
+        <v>3</v>
+      </c>
+      <c r="L126" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M126" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="J126" s="5">
-        <v>3</v>
-      </c>
-      <c r="K126" s="5">
-        <v>3</v>
-      </c>
-      <c r="L126" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M126" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
@@ -6225,10 +6225,10 @@
         <v>1</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>12</v>
@@ -6237,10 +6237,10 @@
         <v>8</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J127" s="5">
         <v>2</v>
@@ -6269,16 +6269,16 @@
         <v>20</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I128" s="5" t="s">
         <v>7</v>
@@ -6307,7 +6307,7 @@
         <v>1</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>21</v>
@@ -6319,7 +6319,7 @@
         <v>8</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>7</v>
@@ -6375,7 +6375,7 @@
         <v>8</v>
       </c>
       <c r="M130" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
@@ -6389,7 +6389,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>20</v>
@@ -6401,7 +6401,7 @@
         <v>8</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I131" s="5" t="s">
         <v>7</v>
@@ -6427,13 +6427,13 @@
         <v>20</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>12</v>
@@ -6442,10 +6442,10 @@
         <v>22</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J132" s="5">
         <v>2</v>
@@ -6457,7 +6457,7 @@
         <v>8</v>
       </c>
       <c r="M132" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
@@ -6468,13 +6468,13 @@
         <v>19</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>12</v>
@@ -6483,7 +6483,7 @@
         <v>8</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I133" s="5" t="s">
         <v>7</v>
@@ -6498,7 +6498,7 @@
         <v>8</v>
       </c>
       <c r="M133" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
@@ -6512,10 +6512,10 @@
         <v>1</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>12</v>
@@ -6524,7 +6524,7 @@
         <v>8</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I134" s="5" t="s">
         <v>7</v>
@@ -6553,22 +6553,22 @@
         <v>1</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J135" s="5">
         <v>1</v>
@@ -6606,10 +6606,10 @@
         <v>5</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J136" s="5">
         <v>4</v>
@@ -6632,22 +6632,22 @@
         <v>19</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I137" s="5" t="s">
         <v>7</v>
@@ -6676,7 +6676,7 @@
         <v>1</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>21</v>
@@ -6688,10 +6688,10 @@
         <v>8</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="J138" s="5">
         <v>2</v>
@@ -6729,10 +6729,10 @@
         <v>8</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J139" s="5">
         <v>4</v>
@@ -6761,7 +6761,7 @@
         <v>20</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>12</v>
@@ -6770,7 +6770,7 @@
         <v>5</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I140" s="5" t="s">
         <v>7</v>
@@ -6799,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>21</v>
@@ -6811,7 +6811,7 @@
         <v>5</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I141" s="5" t="s">
         <v>7</v>
@@ -6840,10 +6840,10 @@
         <v>1</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>12</v>
@@ -6852,7 +6852,7 @@
         <v>22</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I142" s="5" t="s">
         <v>7</v>
@@ -6867,7 +6867,7 @@
         <v>8</v>
       </c>
       <c r="M142" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
@@ -6881,22 +6881,22 @@
         <v>1</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J143" s="5">
         <v>3</v>
@@ -6922,10 +6922,10 @@
         <v>1</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>4</v>
@@ -6934,7 +6934,7 @@
         <v>8</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I144" s="5" t="s">
         <v>7</v>
@@ -6963,10 +6963,10 @@
         <v>1</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>12</v>
@@ -6975,7 +6975,7 @@
         <v>8</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I145" s="5" t="s">
         <v>7</v>
@@ -6990,7 +6990,7 @@
         <v>8</v>
       </c>
       <c r="M145" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:13" s="4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7001,13 +7001,13 @@
         <v>18</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>12</v>
@@ -7016,7 +7016,7 @@
         <v>5</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I146" s="4" t="s">
         <v>7</v>
@@ -7031,7 +7031,7 @@
         <v>8</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:13" s="4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7042,13 +7042,13 @@
         <v>21</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>12</v>
@@ -7057,7 +7057,7 @@
         <v>8</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I147" s="4" t="s">
         <v>7</v>
@@ -7083,7 +7083,7 @@
         <v>24</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>3</v>
@@ -7098,7 +7098,7 @@
         <v>8</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I148" s="4" t="s">
         <v>7</v>
@@ -7124,7 +7124,7 @@
         <v>27</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>3</v>
@@ -7139,7 +7139,7 @@
         <v>8</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I149" s="4" t="s">
         <v>7</v>
@@ -7165,10 +7165,10 @@
         <v>21</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>21</v>
@@ -7180,7 +7180,7 @@
         <v>8</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I150" s="4" t="s">
         <v>7</v>
@@ -7206,7 +7206,7 @@
         <v>21</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>21</v>
@@ -7221,7 +7221,7 @@
         <v>8</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I151" s="4" t="s">
         <v>7</v>
@@ -7247,7 +7247,7 @@
         <v>25</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>20</v>
@@ -7262,7 +7262,7 @@
         <v>22</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I152" s="5" t="s">
         <v>7</v>
@@ -7285,16 +7285,16 @@
         <v>15</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>12</v>
@@ -7303,7 +7303,7 @@
         <v>5</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I153" s="4" t="s">
         <v>7</v>
@@ -7318,7 +7318,7 @@
         <v>22</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:13" s="4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7332,10 +7332,10 @@
         <v>1</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>4</v>
@@ -7344,10 +7344,10 @@
         <v>8</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="J154" s="4">
         <v>2</v>
@@ -7370,10 +7370,10 @@
         <v>24</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>21</v>
@@ -7385,10 +7385,10 @@
         <v>8</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J155" s="4">
         <v>1</v>
@@ -7411,13 +7411,13 @@
         <v>26</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>12</v>
@@ -7426,10 +7426,10 @@
         <v>8</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="J156" s="4">
         <v>1</v>
@@ -7455,10 +7455,10 @@
         <v>1</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>12</v>
@@ -7467,10 +7467,10 @@
         <v>22</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J157" s="4">
         <v>3</v>
@@ -7493,13 +7493,13 @@
         <v>24</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>12</v>
@@ -7508,7 +7508,7 @@
         <v>8</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I158" s="4" t="s">
         <v>7</v>
@@ -7523,7 +7523,7 @@
         <v>8</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:13" s="4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7534,10 +7534,10 @@
         <v>21</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>21</v>
@@ -7549,7 +7549,7 @@
         <v>5</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I159" s="4" t="s">
         <v>7</v>
@@ -7575,13 +7575,13 @@
         <v>23</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>12</v>
@@ -7590,10 +7590,10 @@
         <v>5</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J160" s="4">
         <v>3</v>
@@ -7619,10 +7619,10 @@
         <v>1</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>12</v>
@@ -7631,10 +7631,10 @@
         <v>22</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J161" s="5">
         <v>4</v>
@@ -7657,13 +7657,13 @@
         <v>45</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>12</v>
@@ -7672,10 +7672,10 @@
         <v>22</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="J162" s="4">
         <v>4</v>
@@ -7687,7 +7687,7 @@
         <v>8</v>
       </c>
       <c r="M162" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163" spans="1:13" s="4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7698,13 +7698,13 @@
         <v>25</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>12</v>
@@ -7713,10 +7713,10 @@
         <v>8</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J163" s="4">
         <v>2</v>
@@ -7742,10 +7742,10 @@
         <v>1</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>4</v>
@@ -7754,10 +7754,10 @@
         <v>8</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J164" s="4">
         <v>2</v>
@@ -7783,10 +7783,10 @@
         <v>1</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>12</v>
@@ -7795,10 +7795,10 @@
         <v>8</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J165" s="4">
         <v>3</v>
@@ -7821,13 +7821,13 @@
         <v>32</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>12</v>
@@ -7836,10 +7836,10 @@
         <v>5</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J166" s="4">
         <v>3</v>
@@ -7851,7 +7851,7 @@
         <v>8</v>
       </c>
       <c r="M166" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" spans="1:13" s="4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7862,13 +7862,13 @@
         <v>23</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>12</v>
@@ -7877,7 +7877,7 @@
         <v>5</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I167" s="4" t="s">
         <v>7</v>
@@ -7903,13 +7903,13 @@
         <v>22</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>12</v>
@@ -7918,10 +7918,10 @@
         <v>22</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="J168" s="4">
         <v>3</v>
@@ -7944,13 +7944,13 @@
         <v>28</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>12</v>
@@ -7959,7 +7959,7 @@
         <v>8</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I169" s="4" t="s">
         <v>7</v>
@@ -7985,10 +7985,10 @@
         <v>27</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>21</v>
@@ -8000,10 +8000,10 @@
         <v>22</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="J170" s="4">
         <v>3</v>
@@ -8020,7 +8020,7 @@
     </row>
     <row r="171" spans="1:13" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B171" s="5">
         <v>18</v>
@@ -8029,10 +8029,10 @@
         <v>1</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>12</v>
@@ -8070,10 +8070,10 @@
         <v>1</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>12</v>
@@ -8108,10 +8108,10 @@
         <v>19</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>21</v>
@@ -8123,7 +8123,7 @@
         <v>8</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I173" s="5" t="s">
         <v>7</v>

--- a/PANDAS.xlsx
+++ b/PANDAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suyas\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466F281C-D13C-4457-A632-52798E8A7E85}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B8D1BBA-94DB-4232-9190-CC610C245900}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6F207AB2-AA58-4B8E-9E16-532D4006488F}"/>
   </bookViews>
